--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95130.02416069237</v>
+        <v>17398996.30120863</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95130.02416069237</v>
+        <v>17398996.30120863</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19069.66052122358</v>
+        <v>2313641.036780139</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19069.66052122358</v>
+        <v>2313641.036780139</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342060169.157877</v>
+        <v>52618215.9808653</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10861.18373779419</v>
+        <v>1174156.927333878</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20663.83430675362</v>
+        <v>2226544.005783697</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30523.78315934939</v>
+        <v>3290045.785593486</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40591.5661507148</v>
+        <v>4315005.638640057</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50556.47110588576</v>
+        <v>5354187.51404796</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60045.89123328662</v>
+        <v>6411402.110223457</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69930.15060073143</v>
+        <v>7535356.38988699</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79681.65324539276</v>
+        <v>8633977.603602163</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89569.66255334567</v>
+        <v>9644611.65328167</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99025.99805286762</v>
+        <v>10725933.63831126</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107981.7353005193</v>
+        <v>11753964.58348282</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117381.1693027908</v>
+        <v>12850158.9067674</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126692.0725352068</v>
+        <v>13946353.23005199</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136683.3741860787</v>
+        <v>14964620.13695642</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>147598.7055558779</v>
+        <v>15771048.03020914</v>
       </c>
     </row>
   </sheetData>
@@ -27055,10 +27055,10 @@
         <v>64.00000003620909</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>323.0000000000564</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>124</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>139</v>
